--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H2">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I2">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J2">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N2">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O2">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P2">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q2">
-        <v>16.55395162684458</v>
+        <v>22.83841433674667</v>
       </c>
       <c r="R2">
-        <v>16.55395162684458</v>
+        <v>205.54572903072</v>
       </c>
       <c r="S2">
-        <v>0.03692567860144955</v>
+        <v>0.0391964124904866</v>
       </c>
       <c r="T2">
-        <v>0.03692567860144955</v>
+        <v>0.04983916651583329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H3">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I3">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J3">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N3">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P3">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q3">
-        <v>31.78306041123009</v>
+        <v>43.25818325767501</v>
       </c>
       <c r="R3">
-        <v>31.78306041123009</v>
+        <v>389.323649319075</v>
       </c>
       <c r="S3">
-        <v>0.07089612801648887</v>
+        <v>0.07424182649268915</v>
       </c>
       <c r="T3">
-        <v>0.07089612801648887</v>
+        <v>0.09440024017266389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H4">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I4">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J4">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N4">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O4">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P4">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q4">
-        <v>30.36630766042013</v>
+        <v>49.07927645947766</v>
       </c>
       <c r="R4">
-        <v>30.36630766042013</v>
+        <v>441.7134881352989</v>
       </c>
       <c r="S4">
-        <v>0.06773588217831131</v>
+        <v>0.08423227359287634</v>
       </c>
       <c r="T4">
-        <v>0.06773588217831131</v>
+        <v>0.1071033301994541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H5">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I5">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J5">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N5">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O5">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P5">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q5">
-        <v>28.33709003070153</v>
+        <v>36.73025164016801</v>
       </c>
       <c r="R5">
-        <v>28.33709003070153</v>
+        <v>330.572264761512</v>
       </c>
       <c r="S5">
-        <v>0.0632094561202652</v>
+        <v>0.06303826846029982</v>
       </c>
       <c r="T5">
-        <v>0.0632094561202652</v>
+        <v>0.08015465087334786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H6">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I6">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J6">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N6">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O6">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P6">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q6">
-        <v>12.73901690160038</v>
+        <v>16.308436175297</v>
       </c>
       <c r="R6">
-        <v>12.73901690160038</v>
+        <v>97.850617051782</v>
       </c>
       <c r="S6">
-        <v>0.02841598516236536</v>
+        <v>0.02798934207849972</v>
       </c>
       <c r="T6">
-        <v>0.02841598516236536</v>
+        <v>0.02372607409513205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H7">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I7">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J7">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N7">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O7">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P7">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q7">
-        <v>5.246069658548751</v>
+        <v>5.558858378204445</v>
       </c>
       <c r="R7">
-        <v>5.246069658548751</v>
+        <v>50.02972540384</v>
       </c>
       <c r="S7">
-        <v>0.01170202055068541</v>
+        <v>0.009540386769221598</v>
       </c>
       <c r="T7">
-        <v>0.01170202055068541</v>
+        <v>0.01213082766011031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H8">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I8">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J8">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N8">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P8">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q8">
-        <v>10.07228682538796</v>
+        <v>10.529019698225</v>
       </c>
       <c r="R8">
-        <v>10.07228682538796</v>
+        <v>94.76117728402501</v>
       </c>
       <c r="S8">
-        <v>0.02246750712336018</v>
+        <v>0.01807042262772411</v>
       </c>
       <c r="T8">
-        <v>0.02246750712336018</v>
+        <v>0.02297697021565974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H9">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I9">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J9">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N9">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O9">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P9">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q9">
-        <v>9.623307404206312</v>
+        <v>11.94587080872811</v>
       </c>
       <c r="R9">
-        <v>9.623307404206312</v>
+        <v>107.512837278553</v>
       </c>
       <c r="S9">
-        <v>0.02146600185265893</v>
+        <v>0.0205020923463844</v>
       </c>
       <c r="T9">
-        <v>0.02146600185265893</v>
+        <v>0.02606889583638419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H10">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I10">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J10">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N10">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O10">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P10">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q10">
-        <v>8.9802333347741</v>
+        <v>8.940124478562666</v>
       </c>
       <c r="R10">
-        <v>8.9802333347741</v>
+        <v>80.46112030706399</v>
       </c>
       <c r="S10">
-        <v>0.02003154396972827</v>
+        <v>0.01534348232811491</v>
       </c>
       <c r="T10">
-        <v>0.02003154396972827</v>
+        <v>0.01950960106028242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H11">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I11">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J11">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N11">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O11">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P11">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q11">
-        <v>4.037088639237749</v>
+        <v>3.969465030792333</v>
       </c>
       <c r="R11">
-        <v>4.037088639237749</v>
+        <v>23.816790184754</v>
       </c>
       <c r="S11">
-        <v>0.009005235785292177</v>
+        <v>0.006812591558213317</v>
       </c>
       <c r="T11">
-        <v>0.009005235785292177</v>
+        <v>0.005774914309765167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H12">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I12">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J12">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N12">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O12">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P12">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q12">
-        <v>40.15730222510439</v>
+        <v>0.514092789368889</v>
       </c>
       <c r="R12">
-        <v>40.15730222510439</v>
+        <v>4.62683510432</v>
       </c>
       <c r="S12">
-        <v>0.08957593140847719</v>
+        <v>0.0008823113870066631</v>
       </c>
       <c r="T12">
-        <v>0.08957593140847719</v>
+        <v>0.001121879818631713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H13">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I13">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J13">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N13">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P13">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q13">
-        <v>77.10074255036365</v>
+        <v>0.9737418616750002</v>
       </c>
       <c r="R13">
-        <v>77.10074255036365</v>
+        <v>8.763676755075002</v>
       </c>
       <c r="S13">
-        <v>0.1719829381844408</v>
+        <v>0.001671183783020225</v>
       </c>
       <c r="T13">
-        <v>0.1719829381844408</v>
+        <v>0.002124949747906666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H14">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I14">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J14">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N14">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O14">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P14">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q14">
-        <v>73.66392156193793</v>
+        <v>1.104774690713222</v>
       </c>
       <c r="R14">
-        <v>73.66392156193793</v>
+        <v>9.942972216418999</v>
       </c>
       <c r="S14">
-        <v>0.1643166751621708</v>
+        <v>0.001896068783399336</v>
       </c>
       <c r="T14">
-        <v>0.1643166751621708</v>
+        <v>0.002410896350380249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H15">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I15">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J15">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N15">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O15">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P15">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q15">
-        <v>68.74135639598833</v>
+        <v>0.8267980973413334</v>
       </c>
       <c r="R15">
-        <v>68.74135639598833</v>
+        <v>7.441182876072</v>
       </c>
       <c r="S15">
-        <v>0.1533362722160983</v>
+        <v>0.001418991651167182</v>
       </c>
       <c r="T15">
-        <v>0.1533362722160983</v>
+        <v>0.001804281481226458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01159033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.034771</v>
+      </c>
+      <c r="I16">
+        <v>0.006498595796069574</v>
+      </c>
+      <c r="J16">
+        <v>0.007996081411887533</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>31.673201</v>
+      </c>
+      <c r="N16">
+        <v>63.346402</v>
+      </c>
+      <c r="O16">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P16">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q16">
+        <v>0.3671029573236667</v>
+      </c>
+      <c r="R16">
+        <v>2.202617743942</v>
+      </c>
+      <c r="S16">
+        <v>0.0006300401914761682</v>
+      </c>
+      <c r="T16">
+        <v>0.0005340740137424485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.129665</v>
+      </c>
+      <c r="H17">
+        <v>0.388995</v>
+      </c>
+      <c r="I17">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J17">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.35530666666667</v>
+      </c>
+      <c r="N17">
+        <v>133.06592</v>
+      </c>
+      <c r="O17">
+        <v>0.1357695438667374</v>
+      </c>
+      <c r="P17">
+        <v>0.1403037013810099</v>
+      </c>
+      <c r="Q17">
+        <v>5.751330838933334</v>
+      </c>
+      <c r="R17">
+        <v>51.7619775504</v>
+      </c>
+      <c r="S17">
+        <v>0.009870717494137555</v>
+      </c>
+      <c r="T17">
+        <v>0.01255085099791904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.129665</v>
+      </c>
+      <c r="H18">
+        <v>0.388995</v>
+      </c>
+      <c r="I18">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J18">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>84.01327500000001</v>
+      </c>
+      <c r="N18">
+        <v>252.039825</v>
+      </c>
+      <c r="O18">
+        <v>0.2571607521783362</v>
+      </c>
+      <c r="P18">
+        <v>0.2657488885427764</v>
+      </c>
+      <c r="Q18">
+        <v>10.893581302875</v>
+      </c>
+      <c r="R18">
+        <v>98.042231725875</v>
+      </c>
+      <c r="S18">
+        <v>0.0186961012244673</v>
+      </c>
+      <c r="T18">
+        <v>0.02377253536530308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.129665</v>
+      </c>
+      <c r="H19">
+        <v>0.388995</v>
+      </c>
+      <c r="I19">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J19">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>95.31862966666665</v>
+      </c>
+      <c r="N19">
+        <v>285.955889</v>
+      </c>
+      <c r="O19">
+        <v>0.291765920346377</v>
+      </c>
+      <c r="P19">
+        <v>0.3015097303531755</v>
+      </c>
+      <c r="Q19">
+        <v>12.35949011572833</v>
+      </c>
+      <c r="R19">
+        <v>111.235411041555</v>
+      </c>
+      <c r="S19">
+        <v>0.02121196619017068</v>
+      </c>
+      <c r="T19">
+        <v>0.02697151723609228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.129665</v>
+      </c>
+      <c r="H20">
+        <v>0.388995</v>
+      </c>
+      <c r="I20">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J20">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>71.335144</v>
+      </c>
+      <c r="N20">
+        <v>214.005432</v>
+      </c>
+      <c r="O20">
+        <v>0.2183535790955647</v>
+      </c>
+      <c r="P20">
+        <v>0.2256457117287584</v>
+      </c>
+      <c r="Q20">
+        <v>9.249671446760001</v>
+      </c>
+      <c r="R20">
+        <v>83.24704302084</v>
+      </c>
+      <c r="S20">
+        <v>0.01587474209386494</v>
+      </c>
+      <c r="T20">
+        <v>0.02018511043080975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.129665</v>
+      </c>
+      <c r="H21">
+        <v>0.388995</v>
+      </c>
+      <c r="I21">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J21">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>31.673201</v>
+      </c>
+      <c r="N21">
+        <v>63.346402</v>
+      </c>
+      <c r="O21">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P21">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q21">
+        <v>4.106905607665</v>
+      </c>
+      <c r="R21">
+        <v>24.64143364599</v>
+      </c>
+      <c r="S21">
+        <v>0.007048473851291939</v>
+      </c>
+      <c r="T21">
+        <v>0.005974867590110833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0020355</v>
+      </c>
+      <c r="H22">
+        <v>2.004071</v>
+      </c>
+      <c r="I22">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J22">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>44.35530666666667</v>
+      </c>
+      <c r="N22">
+        <v>133.06592</v>
+      </c>
+      <c r="O22">
+        <v>0.1357695438667374</v>
+      </c>
+      <c r="P22">
+        <v>0.1403037013810099</v>
+      </c>
+      <c r="Q22">
+        <v>44.44559189338668</v>
+      </c>
+      <c r="R22">
+        <v>266.67355136032</v>
+      </c>
+      <c r="S22">
+        <v>0.07627971572588495</v>
+      </c>
+      <c r="T22">
+        <v>0.06466097638851559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0020355</v>
+      </c>
+      <c r="H23">
+        <v>2.004071</v>
+      </c>
+      <c r="I23">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J23">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>84.01327500000001</v>
+      </c>
+      <c r="N23">
+        <v>252.039825</v>
+      </c>
+      <c r="O23">
+        <v>0.2571607521783362</v>
+      </c>
+      <c r="P23">
+        <v>0.2657488885427764</v>
+      </c>
+      <c r="Q23">
+        <v>84.18428402126251</v>
+      </c>
+      <c r="R23">
+        <v>505.1057041275751</v>
+      </c>
+      <c r="S23">
+        <v>0.1444812180504354</v>
+      </c>
+      <c r="T23">
+        <v>0.122474193041243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.982154480542649</v>
-      </c>
-      <c r="H16">
-        <v>0.982154480542649</v>
-      </c>
-      <c r="I16">
-        <v>0.6481445606393947</v>
-      </c>
-      <c r="J16">
-        <v>0.6481445606393947</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>31.4643640952541</v>
-      </c>
-      <c r="N16">
-        <v>31.4643640952541</v>
-      </c>
-      <c r="O16">
-        <v>0.1063539646158653</v>
-      </c>
-      <c r="P16">
-        <v>0.1063539646158653</v>
-      </c>
-      <c r="Q16">
-        <v>30.90286617357907</v>
-      </c>
-      <c r="R16">
-        <v>30.90286617357907</v>
-      </c>
-      <c r="S16">
-        <v>0.06893274366820774</v>
-      </c>
-      <c r="T16">
-        <v>0.06893274366820774</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0020355</v>
+      </c>
+      <c r="H24">
+        <v>2.004071</v>
+      </c>
+      <c r="I24">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J24">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>95.31862966666665</v>
+      </c>
+      <c r="N24">
+        <v>285.955889</v>
+      </c>
+      <c r="O24">
+        <v>0.291765920346377</v>
+      </c>
+      <c r="P24">
+        <v>0.3015097303531755</v>
+      </c>
+      <c r="Q24">
+        <v>95.51265073735316</v>
+      </c>
+      <c r="R24">
+        <v>573.0759044241189</v>
+      </c>
+      <c r="S24">
+        <v>0.1639235194335462</v>
+      </c>
+      <c r="T24">
+        <v>0.1389550907308647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0020355</v>
+      </c>
+      <c r="H25">
+        <v>2.004071</v>
+      </c>
+      <c r="I25">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J25">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>71.335144</v>
+      </c>
+      <c r="N25">
+        <v>214.005432</v>
+      </c>
+      <c r="O25">
+        <v>0.2183535790955647</v>
+      </c>
+      <c r="P25">
+        <v>0.2256457117287584</v>
+      </c>
+      <c r="Q25">
+        <v>71.48034668561201</v>
+      </c>
+      <c r="R25">
+        <v>428.882080113672</v>
+      </c>
+      <c r="S25">
+        <v>0.1226780945621178</v>
+      </c>
+      <c r="T25">
+        <v>0.1039920678830919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0020355</v>
+      </c>
+      <c r="H26">
+        <v>2.004071</v>
+      </c>
+      <c r="I26">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J26">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>31.673201</v>
+      </c>
+      <c r="N26">
+        <v>63.346402</v>
+      </c>
+      <c r="O26">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P26">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q26">
+        <v>31.7376718006355</v>
+      </c>
+      <c r="R26">
+        <v>126.950687202542</v>
+      </c>
+      <c r="S26">
+        <v>0.0544697568335036</v>
+      </c>
+      <c r="T26">
+        <v>0.0307820379855294</v>
       </c>
     </row>
   </sheetData>
